--- a/2025-BBTANAUAN/Master.xlsx
+++ b/2025-BBTANAUAN/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\Github Clone\School-Based-Management-System-ROOT\School-Based-Management-System-Manual\2025-BBTANAUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF7CD8-7517-4327-97FE-786D3F6C5851}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA896224-9242-4C08-BC2E-C1CAE785392F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1897,6 +1897,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,18 +1963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2002,6 +1993,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,19 +2020,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12889,98 +12889,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="180" t="s">
+      <c r="C1" s="183"/>
+      <c r="D1" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="182"/>
-      <c r="F1" s="180" t="s">
+      <c r="E1" s="183"/>
+      <c r="F1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="182"/>
-      <c r="H1" s="180" t="s">
+      <c r="G1" s="183"/>
+      <c r="H1" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="182"/>
-      <c r="J1" s="180" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="182"/>
-      <c r="L1" s="164" t="s">
+      <c r="K1" s="183"/>
+      <c r="L1" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="164" t="s">
+      <c r="M1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="183" t="s">
+      <c r="K2" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
       <c r="O2" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="82">
         <v>10</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="32">
         <v>10</v>
       </c>
-      <c r="E3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="32">
         <v>10</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="32">
         <v>10</v>
       </c>
-      <c r="I3" s="174"/>
+      <c r="I3" s="175"/>
       <c r="J3" s="32">
         <v>10</v>
       </c>
-      <c r="K3" s="174"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -15104,12 +15104,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H1:I1"/>
@@ -15117,6 +15111,12 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -15170,58 +15170,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="167" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="167" t="s">
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="167" t="s">
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="167" t="s">
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170" t="s">
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="164" t="s">
+      <c r="AG1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
@@ -15237,7 +15237,7 @@
       <c r="F2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -15255,7 +15255,7 @@
       <c r="L2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -15273,7 +15273,7 @@
       <c r="R2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="T2" s="5" t="s">
@@ -15291,7 +15291,7 @@
       <c r="X2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="173" t="s">
+      <c r="Y2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="Z2" s="5" t="s">
@@ -15309,17 +15309,17 @@
       <c r="AD2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AE2" s="173" t="s">
+      <c r="AE2" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="165"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="166"/>
       <c r="AI2" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="6">
         <v>40</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="F3" s="32">
         <v>10</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="6">
         <v>40</v>
       </c>
@@ -15353,7 +15353,7 @@
       <c r="L3" s="32">
         <v>10</v>
       </c>
-      <c r="M3" s="174"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="6">
         <v>40</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="R3" s="32">
         <v>10</v>
       </c>
-      <c r="S3" s="174"/>
+      <c r="S3" s="175"/>
       <c r="T3" s="6">
         <v>40</v>
       </c>
@@ -15387,7 +15387,7 @@
       <c r="X3" s="32">
         <v>10</v>
       </c>
-      <c r="Y3" s="174"/>
+      <c r="Y3" s="175"/>
       <c r="Z3" s="6">
         <v>40</v>
       </c>
@@ -15404,9 +15404,9 @@
       <c r="AD3" s="32">
         <v>10</v>
       </c>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="166"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -20754,7 +20754,7 @@
   <dimension ref="A1:AV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV7" sqref="AV7"/>
+      <selection activeCell="X19" activeCellId="5" sqref="H9 H19 P19 P9 X9 X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -20806,77 +20806,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="179" t="s">
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="179" t="s">
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="179" t="s">
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="182"/>
-      <c r="AH1" s="179" t="s">
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="183"/>
+      <c r="AH1" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="180"/>
-      <c r="AJ1" s="180"/>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="180"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="189" t="s">
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="182"/>
+      <c r="AP1" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" s="195" t="s">
+      <c r="AQ1" s="192" t="s">
         <v>195</v>
       </c>
-      <c r="AR1" s="197" t="s">
+      <c r="AR1" s="194" t="s">
         <v>194</v>
       </c>
-      <c r="AS1" s="189" t="s">
+      <c r="AS1" s="186" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="192" t="s">
+      <c r="AT1" s="189" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
+      <c r="A2" s="198"/>
       <c r="B2" s="151" t="s">
         <v>185</v>
       </c>
@@ -20898,7 +20898,7 @@
       <c r="H2" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="171" t="s">
         <v>190</v>
       </c>
       <c r="J2" s="151" t="s">
@@ -20922,7 +20922,7 @@
       <c r="P2" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="171" t="s">
         <v>190</v>
       </c>
       <c r="R2" s="151" t="s">
@@ -20946,7 +20946,7 @@
       <c r="X2" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="Y2" s="170" t="s">
+      <c r="Y2" s="171" t="s">
         <v>190</v>
       </c>
       <c r="Z2" s="151" t="s">
@@ -20970,7 +20970,7 @@
       <c r="AF2" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="AG2" s="170" t="s">
+      <c r="AG2" s="171" t="s">
         <v>190</v>
       </c>
       <c r="AH2" s="151" t="s">
@@ -20994,20 +20994,20 @@
       <c r="AN2" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="AO2" s="178" t="s">
+      <c r="AO2" s="179" t="s">
         <v>190</v>
       </c>
-      <c r="AP2" s="190"/>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="198"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="193"/>
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="193"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="187"/>
+      <c r="AT2" s="190"/>
       <c r="AV2" s="90" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="6">
         <v>10</v>
       </c>
@@ -21030,7 +21030,7 @@
         <f>SUM(B3:G3)</f>
         <v>100</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="6">
         <v>10</v>
       </c>
@@ -21053,7 +21053,7 @@
         <f>SUM(J3:O3)</f>
         <v>100</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="173"/>
       <c r="R3" s="6">
         <v>10</v>
       </c>
@@ -21076,7 +21076,7 @@
         <f>SUM(R3:W3)</f>
         <v>100</v>
       </c>
-      <c r="Y3" s="172"/>
+      <c r="Y3" s="173"/>
       <c r="Z3" s="6">
         <v>10</v>
       </c>
@@ -21099,7 +21099,7 @@
         <f>SUM(Z3:AE3)</f>
         <v>100</v>
       </c>
-      <c r="AG3" s="172"/>
+      <c r="AG3" s="173"/>
       <c r="AH3" s="6">
         <v>10</v>
       </c>
@@ -21122,7 +21122,7 @@
         <f>SUM(AH3:AM3)</f>
         <v>100</v>
       </c>
-      <c r="AO3" s="188"/>
+      <c r="AO3" s="196"/>
       <c r="AP3" s="6">
         <f>SUM(H3,P3,X3,AF3,AN3)</f>
         <v>500</v>
@@ -21133,8 +21133,8 @@
       <c r="AR3" s="114">
         <v>40</v>
       </c>
-      <c r="AS3" s="191"/>
-      <c r="AT3" s="194"/>
+      <c r="AS3" s="188"/>
+      <c r="AT3" s="191"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
@@ -21412,7 +21412,7 @@
         <v>39.5</v>
       </c>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="208" t="s">
+      <c r="AA6" s="164" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="30"/>
@@ -23940,7 +23940,7 @@
         <v>39.5</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="208" t="s">
+      <c r="AA29" s="164" t="s">
         <v>109</v>
       </c>
       <c r="AB29" s="30"/>
@@ -25534,22 +25534,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -25597,53 +25597,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="199" t="s">
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="199" t="s">
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="199" t="s">
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="199" t="s">
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="170" t="s">
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="164" t="s">
+      <c r="AB1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="13" t="s">
         <v>176</v>
       </c>
@@ -25656,7 +25656,7 @@
       <c r="E2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -25671,7 +25671,7 @@
       <c r="J2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="202" t="s">
+      <c r="K2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="13" t="s">
@@ -25686,7 +25686,7 @@
       <c r="O2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="Q2" s="13" t="s">
@@ -25701,7 +25701,7 @@
       <c r="T2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="V2" s="13" t="s">
@@ -25716,14 +25716,14 @@
       <c r="Y2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="203" t="s">
+      <c r="Z2" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="165"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="166"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="10">
         <v>40</v>
       </c>
@@ -25737,7 +25737,7 @@
         <f>SUM(B3:D3)</f>
         <v>100</v>
       </c>
-      <c r="F3" s="172"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="10">
         <v>40</v>
       </c>
@@ -25751,7 +25751,7 @@
         <f>SUM(G3:I3)</f>
         <v>100</v>
       </c>
-      <c r="K3" s="172"/>
+      <c r="K3" s="173"/>
       <c r="L3" s="10">
         <v>40</v>
       </c>
@@ -25765,7 +25765,7 @@
         <f>SUM(L3:N3)</f>
         <v>100</v>
       </c>
-      <c r="P3" s="172"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="10">
         <v>40</v>
       </c>
@@ -25779,7 +25779,7 @@
         <f>SUM(Q3:S3)</f>
         <v>100</v>
       </c>
-      <c r="U3" s="172"/>
+      <c r="U3" s="173"/>
       <c r="V3" s="10">
         <v>40</v>
       </c>
@@ -25793,9 +25793,9 @@
         <f>SUM(V3:X3)</f>
         <v>100</v>
       </c>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="166"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="167"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -26896,48 +26896,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="199" t="s">
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="199" t="s">
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="199" t="s">
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="199" t="s">
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="164" t="s">
+      <c r="W1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
@@ -26947,7 +26947,7 @@
       <c r="D2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -26959,7 +26959,7 @@
       <c r="H2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
@@ -26971,7 +26971,7 @@
       <c r="L2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -26983,7 +26983,7 @@
       <c r="P2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="202" t="s">
+      <c r="Q2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="R2" s="13" t="s">
@@ -26995,14 +26995,14 @@
       <c r="T2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="171"/>
-      <c r="W2" s="165"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="166"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="10">
         <v>60</v>
       </c>
@@ -27013,7 +27013,7 @@
         <f t="shared" ref="D3:D13" si="0">SUM(B3:C3)</f>
         <v>100</v>
       </c>
-      <c r="E3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="10">
         <v>60</v>
       </c>
@@ -27024,7 +27024,7 @@
         <f t="shared" ref="H3:H13" si="1">SUM(F3:G3)</f>
         <v>100</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="10">
         <v>60</v>
       </c>
@@ -27035,7 +27035,7 @@
         <f t="shared" ref="L3:L13" si="2">SUM(J3:K3)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="172"/>
+      <c r="M3" s="173"/>
       <c r="N3" s="10">
         <v>60</v>
       </c>
@@ -27046,7 +27046,7 @@
         <f t="shared" ref="P3:P13" si="3">SUM(N3:O3)</f>
         <v>100</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="173"/>
       <c r="R3" s="10">
         <v>60</v>
       </c>
@@ -27057,9 +27057,9 @@
         <f t="shared" ref="T3:T13" si="4">SUM(R3:S3)</f>
         <v>100</v>
       </c>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="166"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="167"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -27750,48 +27750,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="199" t="s">
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="199" t="s">
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="199" t="s">
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="199" t="s">
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="164" t="s">
+      <c r="W1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
@@ -27801,7 +27801,7 @@
       <c r="D2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -27813,7 +27813,7 @@
       <c r="H2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
@@ -27825,7 +27825,7 @@
       <c r="L2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -27837,7 +27837,7 @@
       <c r="P2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="202" t="s">
+      <c r="Q2" s="203" t="s">
         <v>55</v>
       </c>
       <c r="R2" s="13" t="s">
@@ -27849,14 +27849,14 @@
       <c r="T2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="171"/>
-      <c r="W2" s="165"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="166"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="10">
         <v>60</v>
       </c>
@@ -27867,7 +27867,7 @@
         <f t="shared" ref="D3:D8" si="0">SUM(B3:C3)</f>
         <v>100</v>
       </c>
-      <c r="E3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="10">
         <v>60</v>
       </c>
@@ -27878,7 +27878,7 @@
         <f t="shared" ref="H3:H8" si="1">SUM(F3:G3)</f>
         <v>100</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="10">
         <v>60</v>
       </c>
@@ -27889,7 +27889,7 @@
         <f t="shared" ref="L3:L8" si="2">SUM(J3:K3)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="172"/>
+      <c r="M3" s="173"/>
       <c r="N3" s="10">
         <v>60</v>
       </c>
@@ -27900,7 +27900,7 @@
         <f t="shared" ref="P3:P8" si="3">SUM(N3:O3)</f>
         <v>100</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="173"/>
       <c r="R3" s="10">
         <v>60</v>
       </c>
@@ -27911,9 +27911,9 @@
         <f t="shared" ref="T3:T8" si="4">SUM(R3:S3)</f>
         <v>100</v>
       </c>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="166"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="167"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28244,6 +28244,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="E2:E3"/>
@@ -28252,11 +28257,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -28357,245 +28357,295 @@
     <row r="29" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="204"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="204"/>
+      <c r="A31" s="207"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="204"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="204"/>
+      <c r="A32" s="207"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="204"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
+      <c r="A33" s="207"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="204"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
+      <c r="A34" s="207"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="207"/>
     </row>
     <row r="35" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="204"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="207"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="207"/>
     </row>
     <row r="36" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="204"/>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="204"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="204"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="204"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="204" t="str">
+      <c r="A39" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204" t="str">
+      <c r="B39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204" t="str">
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204" t="str">
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="207"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="204" t="str">
+      <c r="A40" s="207" t="str">
         <f>SETTINGS!B7</f>
         <v>KC LINTAN</v>
       </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204" t="str">
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207" t="str">
         <f>SETTINGS!B8</f>
         <v>MICHELLE ARCEO</v>
       </c>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204" t="str">
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207" t="str">
         <f>SETTINGS!B9</f>
         <v>DAVID KARELL</v>
       </c>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204" t="s">
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="204"/>
-      <c r="O40" s="204"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="207"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204" t="s">
+      <c r="B41" s="207"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204" t="s">
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204" t="s">
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N41" s="204"/>
-      <c r="O41" s="204"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204" t="s">
+      <c r="A42" s="207"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="207"/>
+      <c r="M42" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="204"/>
-      <c r="O42" s="204"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
     </row>
     <row r="43" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
@@ -28610,56 +28660,6 @@
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
@@ -28743,256 +28743,250 @@
     <row r="29" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="204"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="204"/>
+      <c r="A31" s="207"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
     </row>
     <row r="32" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="204"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="204"/>
+      <c r="A32" s="207"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="204" t="str">
+      <c r="A33" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204" t="str">
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204" t="str">
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204" t="str">
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204" t="str">
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="204" t="str">
+      <c r="A34" s="207" t="str">
         <f>SETTINGS!E7</f>
         <v>AHTISA MANALO</v>
       </c>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204" t="str">
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207" t="str">
         <f>SETTINGS!E8</f>
         <v>NIEL PEREZ</v>
       </c>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204" t="str">
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207" t="str">
         <f>SETTINGS!E9</f>
         <v>KRISHNAH MARIE GRAVIDEZ</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204" t="str">
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207" t="str">
         <f>SETTINGS!E10</f>
         <v>MIGUEL LIM</v>
       </c>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204" t="str">
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="207" t="str">
         <f>SETTINGS!E11</f>
         <v>RAED ALZGHAYER</v>
       </c>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="207"/>
     </row>
     <row r="35" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204" t="s">
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204" t="s">
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204" t="s">
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204" t="s">
+      <c r="K35" s="207"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="207"/>
     </row>
     <row r="36" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="204"/>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="204"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
     </row>
     <row r="37" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="204"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
     </row>
     <row r="38" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="204"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
     </row>
     <row r="39" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204" t="str">
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207" t="str">
         <f>SETTINGS!$A$14</f>
         <v>_____________________________</v>
       </c>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="207"/>
     </row>
     <row r="40" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204" t="s">
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="204"/>
-      <c r="O40" s="204"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="207"/>
     </row>
     <row r="41" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204" t="s">
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N41" s="204"/>
-      <c r="O41" s="204"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
     </row>
     <row r="42" spans="1:15" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204" t="s">
+      <c r="A42" s="207"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="207"/>
+      <c r="M42" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="204"/>
-      <c r="O42" s="204"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
     </row>
     <row r="43" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J39:L39"/>
@@ -29009,22 +29003,28 @@
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
@@ -31654,34 +31654,34 @@
       <c r="AB6" s="206"/>
     </row>
     <row r="7" spans="1:28" s="56" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="H7" s="207" t="s">
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="H7" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="N7" s="207" t="s">
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="N7" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="207"/>
-      <c r="S7" s="207"/>
-      <c r="V7" s="207" t="s">
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="V7" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="W7" s="207"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="207"/>
-      <c r="AA7" s="207"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="61" t="s">
@@ -34522,42 +34522,42 @@
       <c r="AJ6" s="206"/>
     </row>
     <row r="7" spans="1:36" s="56" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="J7" s="207" t="s">
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="J7" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="R7" s="207" t="s">
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="R7" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="207"/>
-      <c r="T7" s="207"/>
-      <c r="U7" s="207"/>
-      <c r="V7" s="207"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="AB7" s="207" t="s">
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="AB7" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="AC7" s="207"/>
-      <c r="AD7" s="207"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="207"/>
-      <c r="AG7" s="207"/>
-      <c r="AH7" s="207"/>
-      <c r="AI7" s="207"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="208"/>
+      <c r="AF7" s="208"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="208"/>
     </row>
     <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="61" t="s">
@@ -38038,42 +38038,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="167" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="167" t="s">
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="170" t="s">
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="164" t="s">
+      <c r="U1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="34" t="s">
         <v>62</v>
       </c>
@@ -38089,7 +38089,7 @@
       <c r="F2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="34" t="s">
@@ -38107,7 +38107,7 @@
       <c r="L2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="34" t="s">
@@ -38125,14 +38125,14 @@
       <c r="R2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="171"/>
-      <c r="U2" s="165"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="166"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="6">
         <v>30</v>
       </c>
@@ -38149,7 +38149,7 @@
         <f>SUM(B3:E3)</f>
         <v>100</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="6">
         <v>30</v>
       </c>
@@ -38166,7 +38166,7 @@
         <f>SUM(H3:K3)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="174"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="6">
         <v>30</v>
       </c>
@@ -38183,9 +38183,9 @@
         <f>SUM(N3:Q3)</f>
         <v>100</v>
       </c>
-      <c r="S3" s="174"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="166"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="167"/>
     </row>
     <row r="4" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -41640,42 +41640,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="167" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="167" t="s">
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="170" t="s">
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="164" t="s">
+      <c r="U1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="176"/>
+      <c r="A2" s="177"/>
       <c r="B2" s="34" t="s">
         <v>66</v>
       </c>
@@ -41691,7 +41691,7 @@
       <c r="F2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="34" t="s">
@@ -41709,7 +41709,7 @@
       <c r="L2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="34" t="s">
@@ -41727,14 +41727,14 @@
       <c r="R2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="171"/>
-      <c r="U2" s="165"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="166"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="6">
         <v>30</v>
       </c>
@@ -41751,7 +41751,7 @@
         <f>SUM(B3:E3)</f>
         <v>100</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="6">
         <v>30</v>
       </c>
@@ -41768,7 +41768,7 @@
         <f>SUM(H3:K3)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="174"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="6">
         <v>30</v>
       </c>
@@ -41785,9 +41785,9 @@
         <f>SUM(N3:Q3)</f>
         <v>100</v>
       </c>
-      <c r="S3" s="174"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="166"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="167"/>
     </row>
     <row r="4" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -45260,42 +45260,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="175" t="s">
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="175" t="s">
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="164" t="s">
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="164" t="s">
+      <c r="U1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="128" t="s">
         <v>61</v>
       </c>
@@ -45311,7 +45311,7 @@
       <c r="F2" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="128" t="s">
@@ -45329,7 +45329,7 @@
       <c r="L2" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="174" t="s">
         <v>55</v>
       </c>
       <c r="N2" s="128" t="s">
@@ -45347,14 +45347,14 @@
       <c r="R2" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="6">
         <v>40</v>
       </c>
@@ -45371,7 +45371,7 @@
       <c r="F3" s="124">
         <v>15</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="6">
         <v>40</v>
       </c>
@@ -45388,7 +45388,7 @@
       <c r="L3" s="124">
         <v>15</v>
       </c>
-      <c r="M3" s="174"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="6">
         <v>40</v>
       </c>
@@ -45405,9 +45405,9 @@
       <c r="R3" s="124">
         <v>15</v>
       </c>
-      <c r="S3" s="174"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
     </row>
     <row r="4" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -48860,39 +48860,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="179" t="s">
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="179" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="164" t="s">
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="164" t="s">
+      <c r="R1" s="165" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="46" t="s">
         <v>62</v>
       </c>
@@ -48905,7 +48905,7 @@
       <c r="E2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="46" t="s">
@@ -48920,7 +48920,7 @@
       <c r="J2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="183" t="s">
+      <c r="K2" s="184" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="46" t="s">
@@ -48935,17 +48935,17 @@
       <c r="O2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="183" t="s">
+      <c r="P2" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
       <c r="T2" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="6">
         <v>60</v>
       </c>
@@ -48959,7 +48959,7 @@
       <c r="E3" s="114">
         <v>15</v>
       </c>
-      <c r="F3" s="174"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="6">
         <v>60</v>
       </c>
@@ -48973,7 +48973,7 @@
       <c r="J3" s="114">
         <v>15</v>
       </c>
-      <c r="K3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="6">
         <v>60</v>
       </c>
@@ -48987,9 +48987,9 @@
       <c r="O3" s="114">
         <v>15</v>
       </c>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
     </row>
     <row r="4" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
